--- a/Output/Modelling/Logistic Regression/Tables/Most_Complex_Model_Permutation_Importance_Top_15.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/Most_Complex_Model_Permutation_Importance_Top_15.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>Mean Accuracy Drop</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/Output/Modelling/Logistic Regression/Tables/Most_Complex_Model_Permutation_Importance_Top_15.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/Most_Complex_Model_Permutation_Importance_Top_15.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Feature</t>
+          <t>Permuted Feature</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
